--- a/Dataset/Folds/Fold_1/Excel/57.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/57.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="75">
   <si>
     <t>Doi</t>
   </si>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                          Michael%Phillips%NULL%1,                          Sarah%Hochman%NULL%1,                          Stephanie%Sterling%NULL%1,                          Diane%Johnson%NULL%1,                          Fritz%Francois%NULL%0,                          Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                           Michael%Phillips%NULL%1,                           Sarah%Hochman%NULL%1,                           Stephanie%Sterling%NULL%1,                           Diane%Johnson%NULL%1,                           Fritz%Francois%NULL%0,                           Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%1,                            Michael%Phillips%NULL%1,                            Sarah%Hochman%NULL%1,                            Stephanie%Sterling%NULL%1,                            Diane%Johnson%NULL%1,                            Fritz%Francois%NULL%0,                            Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Lighter%Jennifer.Lighter@nyumc.org%0, Michael%Phillips%NULL%1, Sarah%Hochman%NULL%1, Stephanie%Sterling%NULL%1, Diane%Johnson%NULL%1, Fritz%Francois%NULL%0, Anna%Stachel%NULL%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
   </si>
 </sst>
 </file>
@@ -576,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -588,10 +600,10 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -602,28 +614,28 @@
         <v>43917</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
